--- a/biology/Zoologie/Albatros_des_Galapagos/Albatros_des_Galapagos.xlsx
+++ b/biology/Zoologie/Albatros_des_Galapagos/Albatros_des_Galapagos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phoebastria irrorata
 L'Albatros des Galapagos (Phoebastria irrorata) est la seule espèce d'albatros vivant en zone tropicale.
@@ -512,9 +524,11 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il se reproduit seulement sur l'île d'Española, dans l'archipel des Galápagos, et dans l'île de la Plata, près de la côte équatorienne[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se reproduit seulement sur l'île d'Española, dans l'archipel des Galápagos, et dans l'île de la Plata, près de la côte équatorienne,.
 Les nids sont généralement placés sur des champs de lave ou sur un sol à la végétation clairsemée.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme tous les albatros, cette espèce se nourrit principalement de poissons et de calamars mais aussi de nourriture régurgitée par d'autres oiseaux.
 </t>
@@ -575,7 +591,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En mer, on le rencontre principalement près des côtes du Pérou et de l'Équateur.
 </t>
@@ -606,7 +624,9 @@
           <t>Population</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La population mondiale est estimée à 35 000 adultes, l'espèce est vulnérable à la sur-pêche et au tourisme de masse qui met en danger l'écosystème.
 </t>
